--- a/com.sevenrmartsupermaket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenrmartsupermaket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Automation\com.sevenrmartsupermaket\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\com.sevenrmartsupermaket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114E12C-4EDC-4D58-823B-F19B93C38674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934AEE2-6DB6-43A4-904D-0378E469F50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1044" windowWidth="11424" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logins" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUsers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,16 +26,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>anandhu25</t>
+  </si>
+  <si>
+    <t>Sreerag</t>
+  </si>
+  <si>
+    <t>sree123456</t>
+  </si>
+  <si>
+    <t>Delivery Boy</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Ananth</t>
+  </si>
+  <si>
+    <t>krish123456</t>
+  </si>
+  <si>
+    <t>ananth123456</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +75,12 @@
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -375,4 +412,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B135584D-909A-4277-9C15-D03F63419346}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>